--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43411,6 +43411,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43446,6 +43446,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43481,6 +43481,43 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43518,6 +43518,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43592,6 +43592,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43666,6 +43666,41 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,43 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43810,6 +43810,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43845,6 +43845,78 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43917,6 +43917,78 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,43 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44096,6 +44096,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44131,6 +44131,78 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44203,6 +44203,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44238,6 +44238,43 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2030"/>
+  <dimension ref="A1:I2031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72520,6 +72520,43 @@
         </is>
       </c>
     </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2031" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2031"/>
+  <dimension ref="A1:I2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72557,6 +72557,43 @@
         </is>
       </c>
     </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2032" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2032"/>
+  <dimension ref="A1:I2033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72594,6 +72594,43 @@
         </is>
       </c>
     </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2033" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2033"/>
+  <dimension ref="A1:I2034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72631,6 +72631,43 @@
         </is>
       </c>
     </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2034" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2034"/>
+  <dimension ref="A1:I2035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72668,6 +72668,43 @@
         </is>
       </c>
     </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2035" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2035"/>
+  <dimension ref="A1:I2036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72705,6 +72705,43 @@
         </is>
       </c>
     </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2036" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2036"/>
+  <dimension ref="A1:I2037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72742,6 +72742,43 @@
         </is>
       </c>
     </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2037" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2037"/>
+  <dimension ref="A1:I2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72779,6 +72779,43 @@
         </is>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2038" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72816,6 +72816,43 @@
         </is>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2039" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72853,6 +72853,43 @@
         </is>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2040" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72890,6 +72890,43 @@
         </is>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2041" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72927,6 +72927,43 @@
         </is>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2042" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72964,6 +72964,43 @@
         </is>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2043" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2043"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73001,6 +73001,43 @@
         </is>
       </c>
     </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2044" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9407.xlsx
+++ b/data/9407.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73038,6 +73038,43 @@
         </is>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>PARAGON</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2045" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
